--- a/2_CodeMappingTemplates/WaterAllocation/XXwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/2_CodeMappingTemplates/WaterAllocation/XXwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\2_Templates\WaterAllocation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\2_CodeMappingTemplates\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A897CF-1F84-426A-8749-C4B7488AB8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306B14DE-2709-4093-8C6C-3395ECD28B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="280">
   <si>
     <t>Name</t>
   </si>
@@ -372,9 +372,6 @@
     <t>Fresh</t>
   </si>
   <si>
-    <t>Input into WaDE 2.0 / Hard Coded Value</t>
-  </si>
-  <si>
     <t>Allocation</t>
   </si>
   <si>
@@ -387,12 +384,6 @@
     <t>BeneficialUseCategory</t>
   </si>
   <si>
-    <t>State Web Feature Service (WFS) Name</t>
-  </si>
-  <si>
-    <t>State WFS Field Name</t>
-  </si>
-  <si>
     <t>An indicator of data confidence, should be a confidence interval (e.g. 90%, 50%, etc.)</t>
   </si>
   <si>
@@ -883,6 +874,12 @@
   </si>
   <si>
     <t>Sarah Larson, Moab District Usa Bureau Of Land Management</t>
+  </si>
+  <si>
+    <t>Hard Coded Value / Note</t>
+  </si>
+  <si>
+    <t>State Web Feature Service / File Input Name</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1623,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1828,11 +1825,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1841,33 +1835,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2267,9 +2234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2281,10 +2248,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C1" s="67" t="s">
         <v>20</v>
@@ -2292,31 +2259,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5" s="68"/>
     </row>
@@ -2330,29 +2297,29 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" s="68"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
+      <c r="A9" s="57"/>
       <c r="C9" s="68"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
+      <c r="A10" s="57"/>
       <c r="C10" s="68"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
+      <c r="A11" s="57"/>
       <c r="C11" s="68"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
+      <c r="A12" s="57"/>
       <c r="C12" s="68"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
-        <v>276</v>
+      <c r="A13" s="57" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2367,7 +2334,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E25:E26"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2378,7 +2345,7 @@
     <col min="4" max="4" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="5" customWidth="1"/>
     <col min="8" max="8" width="20.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.109375" style="5" customWidth="1"/>
     <col min="10" max="10" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
@@ -2386,7 +2353,7 @@
     <col min="12" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2394,22 +2361,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -2422,19 +2389,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="77" t="s">
+      <c r="C2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="26" t="s">
@@ -2446,63 +2413,63 @@
       <c r="H2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="85" t="s">
+      <c r="I2" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="75" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="72"/>
+      <c r="C3" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="71"/>
       <c r="G3" s="37" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="87" t="s">
-        <v>231</v>
+      <c r="I3" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>228</v>
       </c>
       <c r="K3" s="66" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="77" t="s">
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="15"/>
@@ -2512,30 +2479,30 @@
       <c r="H4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="87" t="s">
-        <v>232</v>
+      <c r="I4" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>229</v>
       </c>
       <c r="K4" s="66" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="82" t="s">
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="17"/>
@@ -2545,30 +2512,30 @@
       <c r="H5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="88" t="s">
-        <v>233</v>
+      <c r="I5" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="78" t="s">
+        <v>230</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="82" t="s">
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="17"/>
@@ -2578,30 +2545,30 @@
       <c r="H6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="89" t="s">
-        <v>233</v>
+      <c r="I6" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="79" t="s">
+        <v>230</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="77" t="s">
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="17"/>
@@ -2611,30 +2578,30 @@
       <c r="H7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>233</v>
+      <c r="I7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>230</v>
       </c>
       <c r="K7" s="66" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="82" t="s">
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="15"/>
@@ -2644,30 +2611,30 @@
       <c r="H8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="87" t="s">
-        <v>234</v>
+      <c r="I8" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="77" t="s">
+        <v>231</v>
       </c>
       <c r="K8" s="66" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="82" t="s">
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="15"/>
@@ -2677,30 +2644,30 @@
       <c r="H9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="87" t="s">
-        <v>235</v>
+      <c r="I9" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>232</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="82" t="s">
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="15"/>
@@ -2710,30 +2677,30 @@
       <c r="H10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="87" t="s">
-        <v>236</v>
+      <c r="I10" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="77" t="s">
+        <v>233</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="77" t="s">
+      <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="17"/>
@@ -2743,19 +2710,19 @@
       <c r="H11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="87" t="s">
-        <v>237</v>
+      <c r="I11" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>234</v>
       </c>
       <c r="K11" s="66" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F15" s="96" t="s">
-        <v>278</v>
+      <c r="F15" s="86" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2773,7 +2740,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2784,7 +2751,7 @@
     <col min="4" max="4" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" style="5" customWidth="1"/>
     <col min="8" max="8" width="20.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
@@ -2792,7 +2759,7 @@
     <col min="12" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2800,22 +2767,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -2846,14 +2813,14 @@
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
-      <c r="I2" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="85" t="s">
+      <c r="I2" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="75" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2879,14 +2846,14 @@
       <c r="H3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="87" t="s">
-        <v>238</v>
+      <c r="I3" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>235</v>
       </c>
       <c r="K3" s="66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2912,14 +2879,14 @@
       <c r="H4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="87">
+      <c r="I4" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="77">
         <v>1</v>
       </c>
       <c r="K4" s="66" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2945,14 +2912,14 @@
       <c r="H5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="87" t="s">
+      <c r="I5" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="77" t="s">
         <v>105</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2978,14 +2945,14 @@
       <c r="H6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="87" t="s">
+      <c r="I6" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="77" t="s">
         <v>104</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3011,14 +2978,14 @@
       <c r="H7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="87" t="s">
+      <c r="I7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="77" t="s">
         <v>107</v>
       </c>
       <c r="K7" s="66" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3044,14 +3011,14 @@
       <c r="H8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="87" t="s">
+      <c r="I8" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="77" t="s">
         <v>108</v>
       </c>
       <c r="K8" s="66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3077,14 +3044,14 @@
       <c r="H9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="87">
+      <c r="I9" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="77">
         <v>10</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3110,14 +3077,14 @@
       <c r="H10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="87" t="s">
+      <c r="I10" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="77" t="s">
         <v>106</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3143,14 +3110,14 @@
       <c r="H11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="87" t="s">
-        <v>111</v>
+      <c r="I11" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>110</v>
       </c>
       <c r="K11" s="66" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3176,19 +3143,19 @@
       <c r="H12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="87" t="s">
-        <v>111</v>
+      <c r="I12" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="77" t="s">
+        <v>110</v>
       </c>
       <c r="K12" s="66" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F14" s="96" t="s">
-        <v>278</v>
+      <c r="F14" s="86" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3206,7 +3173,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3217,7 +3184,7 @@
     <col min="4" max="4" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" style="5" customWidth="1"/>
     <col min="8" max="8" width="20.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -3233,22 +3200,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -3285,14 +3252,14 @@
       <c r="H2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="85" t="s">
+      <c r="I2" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="75" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3318,14 +3285,14 @@
       <c r="H3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="90" t="s">
-        <v>239</v>
+      <c r="I3" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>236</v>
       </c>
       <c r="K3" s="66" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3351,14 +3318,14 @@
       <c r="H4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="90" t="s">
-        <v>240</v>
+      <c r="I4" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>237</v>
       </c>
       <c r="K4" s="66" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3384,14 +3351,14 @@
       <c r="H5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="90" t="s">
-        <v>241</v>
+      <c r="I5" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>238</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3417,14 +3384,14 @@
       <c r="H6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="90" t="s">
-        <v>242</v>
+      <c r="I6" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="80" t="s">
+        <v>239</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3450,14 +3417,14 @@
       <c r="H7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="90" t="s">
-        <v>243</v>
+      <c r="I7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>240</v>
       </c>
       <c r="K7" s="66" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3483,14 +3450,14 @@
       <c r="H8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="90" t="s">
-        <v>244</v>
+      <c r="I8" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>241</v>
       </c>
       <c r="K8" s="66" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3516,14 +3483,14 @@
       <c r="H9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="90" t="s">
-        <v>245</v>
+      <c r="I9" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>242</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3549,14 +3516,14 @@
       <c r="H10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="90" t="s">
-        <v>246</v>
+      <c r="I10" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>243</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3582,19 +3549,19 @@
       <c r="H11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="90" t="s">
-        <v>220</v>
+      <c r="I11" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="80" t="s">
+        <v>217</v>
       </c>
       <c r="K11" s="66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F13" s="96" t="s">
-        <v>278</v>
+      <c r="F13" s="86" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -3636,7 +3603,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3647,7 +3614,7 @@
     <col min="4" max="4" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="5" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
@@ -3663,22 +3630,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -3715,14 +3682,14 @@
       <c r="H2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="85" t="s">
+      <c r="I2" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="75" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3744,14 +3711,14 @@
       <c r="F3" s="41"/>
       <c r="G3" s="37"/>
       <c r="H3" s="40"/>
-      <c r="I3" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="93" t="s">
-        <v>251</v>
+      <c r="I3" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>248</v>
       </c>
       <c r="K3" s="66" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3771,20 +3738,20 @@
         <v>37</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="I4" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="93"/>
+        <v>247</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="83"/>
       <c r="K4" s="66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3806,12 +3773,12 @@
       <c r="F5" s="55"/>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="93"/>
+      <c r="I5" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="83"/>
       <c r="K5" s="66" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3833,14 +3800,14 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="93" t="s">
+      <c r="I6" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="83" t="s">
         <v>109</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3862,14 +3829,14 @@
       <c r="F7" s="56"/>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="93" t="s">
-        <v>249</v>
+      <c r="I7" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>246</v>
       </c>
       <c r="K7" s="66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3891,14 +3858,14 @@
       <c r="F8" s="56"/>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="93" t="s">
-        <v>252</v>
+      <c r="I8" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="83" t="s">
+        <v>249</v>
       </c>
       <c r="K8" s="66" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3920,14 +3887,14 @@
       <c r="F9" s="56"/>
       <c r="G9" s="19"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="93" t="s">
-        <v>248</v>
+      <c r="I9" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="83" t="s">
+        <v>245</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3962,7 +3929,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3973,7 +3940,7 @@
     <col min="4" max="4" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -3989,22 +3956,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -4017,19 +3984,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="77" t="s">
+      <c r="C2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="21" t="s">
@@ -4048,39 +4015,39 @@
         <v>37</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81" t="s">
+      <c r="C3" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="37"/>
       <c r="H3" s="38"/>
-      <c r="I3" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="93" t="s">
-        <v>253</v>
+      <c r="I3" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>250</v>
       </c>
       <c r="K3" s="66" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>66</v>
@@ -4095,20 +4062,20 @@
         <v>19</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="I4" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="93"/>
+        <v>247</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="83"/>
       <c r="K4" s="66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4130,303 +4097,303 @@
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="42"/>
-      <c r="I5" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="93" t="s">
-        <v>257</v>
+      <c r="I5" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>254</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="82" t="s">
+      <c r="B6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="93"/>
+      <c r="I6" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="83"/>
       <c r="K6" s="66" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="77" t="s">
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="52"/>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="93"/>
+      <c r="I7" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="83"/>
       <c r="K7" s="66" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="82" t="s">
+      <c r="B8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="93"/>
+      <c r="I8" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="83"/>
       <c r="K8" s="66" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="77" t="s">
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="93">
+      <c r="I9" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="83">
         <v>4326</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="82" t="s">
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="93"/>
+      <c r="I10" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="83"/>
       <c r="K10" s="66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="77" t="s">
+      <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="93"/>
+      <c r="I11" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="83"/>
       <c r="K11" s="66" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="82" t="s">
+      <c r="B12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="93"/>
+      <c r="I12" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="83"/>
       <c r="K12" s="66" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="82" t="s">
+      <c r="B13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="93"/>
+      <c r="I13" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="83"/>
       <c r="K13" s="66" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="82" t="s">
+      <c r="C14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="93">
+      <c r="I14" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="83">
         <v>40.424861522</v>
       </c>
       <c r="K14" s="66" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="82" t="s">
+      <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="93">
+      <c r="I15" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="83">
         <v>-112.426748144</v>
       </c>
       <c r="K15" s="66" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="76" t="s">
+      <c r="C16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="48" t="s">
@@ -4435,12 +4402,12 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="93"/>
+      <c r="I16" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="83"/>
       <c r="K16" s="66" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4450,7 +4417,7 @@
       <c r="B17" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="47" t="s">
@@ -4462,22 +4429,22 @@
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="93"/>
+      <c r="I17" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="83"/>
       <c r="K17" s="66" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="47" t="s">
@@ -4486,17 +4453,17 @@
       <c r="E18" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="93" t="s">
-        <v>123</v>
+      <c r="I18" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="83" t="s">
+        <v>120</v>
       </c>
       <c r="K18" s="66" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4506,10 +4473,10 @@
       <c r="B19" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="76" t="s">
+      <c r="C19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="49" t="s">
@@ -4518,14 +4485,14 @@
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="93" t="s">
-        <v>254</v>
+      <c r="I19" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="83" t="s">
+        <v>251</v>
       </c>
       <c r="K19" s="66" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4535,7 +4502,7 @@
       <c r="B20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="47" t="s">
@@ -4547,14 +4514,14 @@
       <c r="F20" s="62"/>
       <c r="G20" s="29"/>
       <c r="H20" s="59"/>
-      <c r="I20" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="93" t="s">
-        <v>255</v>
+      <c r="I20" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="83" t="s">
+        <v>252</v>
       </c>
       <c r="K20" s="66" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4564,7 +4531,7 @@
       <c r="B21" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="47" t="s">
@@ -4574,20 +4541,20 @@
         <v>37</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G21" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="H21" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="I21" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="93"/>
+        <v>247</v>
+      </c>
+      <c r="H21" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="I21" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="83"/>
       <c r="K21" s="66" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4597,7 +4564,7 @@
       <c r="B22" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="47" t="s">
@@ -4609,14 +4576,14 @@
       <c r="F22" s="53"/>
       <c r="G22" s="29"/>
       <c r="H22" s="63"/>
-      <c r="I22" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="93" t="s">
-        <v>256</v>
+      <c r="I22" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="83" t="s">
+        <v>253</v>
       </c>
       <c r="K22" s="66" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -4626,7 +4593,7 @@
       <c r="B23" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="47" t="s">
@@ -4638,14 +4605,14 @@
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="93" t="s">
-        <v>220</v>
+      <c r="I23" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="83" t="s">
+        <v>217</v>
       </c>
       <c r="K23" s="66" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4655,7 +4622,7 @@
       <c r="B24" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="47" t="s">
@@ -4667,12 +4634,12 @@
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="93"/>
+      <c r="I24" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="83"/>
       <c r="K24" s="66" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -4706,9 +4673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4718,9 +4685,9 @@
     <col min="3" max="3" width="3.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="34.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.77734375" style="5" customWidth="1"/>
     <col min="11" max="11" width="143.44140625" style="5" bestFit="1" customWidth="1"/>
@@ -4735,22 +4702,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -4784,11 +4751,11 @@
       <c r="I2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="75" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4819,11 +4786,11 @@
       <c r="I3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="75" t="s">
         <v>37</v>
       </c>
       <c r="K3" s="66" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4854,11 +4821,11 @@
       <c r="I4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="75" t="s">
         <v>37</v>
       </c>
       <c r="K4" s="66" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4889,11 +4856,11 @@
       <c r="I5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="75" t="s">
         <v>37</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
@@ -4924,16 +4891,16 @@
       <c r="I6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="75" t="s">
         <v>37</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>33</v>
@@ -4950,14 +4917,14 @@
       <c r="F7" s="15"/>
       <c r="G7" s="55"/>
       <c r="H7" s="59"/>
-      <c r="I7" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="93" t="s">
-        <v>265</v>
+      <c r="I7" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>262</v>
       </c>
       <c r="K7" s="66" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4979,14 +4946,14 @@
       <c r="F8" s="50"/>
       <c r="G8" s="55"/>
       <c r="H8" s="59"/>
-      <c r="I8" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="93" t="s">
-        <v>231</v>
+      <c r="I8" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="83" t="s">
+        <v>228</v>
       </c>
       <c r="K8" s="66" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -5005,17 +4972,17 @@
       <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="93" t="s">
-        <v>239</v>
+      <c r="I9" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="83" t="s">
+        <v>236</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -5037,14 +5004,14 @@
       <c r="F10" s="15"/>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="93" t="s">
-        <v>275</v>
+      <c r="I10" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="83" t="s">
+        <v>272</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5066,19 +5033,19 @@
       <c r="F11" s="60"/>
       <c r="G11" s="37"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="93" t="s">
-        <v>238</v>
+      <c r="I11" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="83" t="s">
+        <v>235</v>
       </c>
       <c r="K11" s="66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>32</v>
@@ -5095,12 +5062,12 @@
       <c r="F12" s="17"/>
       <c r="G12" s="55"/>
       <c r="H12" s="59"/>
-      <c r="I12" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="93"/>
+      <c r="I12" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="83"/>
       <c r="K12" s="66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
@@ -5122,12 +5089,12 @@
       <c r="F13" s="17"/>
       <c r="G13" s="55"/>
       <c r="H13" s="59"/>
-      <c r="I13" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="93"/>
+      <c r="I13" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="83"/>
       <c r="K13" s="66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -5149,12 +5116,12 @@
       <c r="F14" s="17"/>
       <c r="G14" s="55"/>
       <c r="H14" s="59"/>
-      <c r="I14" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="93"/>
+      <c r="I14" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="83"/>
       <c r="K14" s="66" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -5176,14 +5143,14 @@
       <c r="F15" s="17"/>
       <c r="G15" s="55"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="93" t="s">
-        <v>247</v>
+      <c r="I15" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="83" t="s">
+        <v>244</v>
       </c>
       <c r="K15" s="66" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -5205,12 +5172,12 @@
       <c r="F16" s="17"/>
       <c r="G16" s="55"/>
       <c r="H16" s="59"/>
-      <c r="I16" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="93"/>
+      <c r="I16" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="83"/>
       <c r="K16" s="66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5232,12 +5199,12 @@
       <c r="F17" s="17"/>
       <c r="G17" s="55"/>
       <c r="H17" s="59"/>
-      <c r="I17" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="93"/>
+      <c r="I17" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="83"/>
       <c r="K17" s="66" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5259,17 +5226,17 @@
       <c r="F18" s="17"/>
       <c r="G18" s="55"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="93"/>
+      <c r="I18" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="83"/>
       <c r="K18" s="66" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>32</v>
@@ -5286,17 +5253,17 @@
       <c r="F19" s="17"/>
       <c r="G19" s="55"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="93"/>
+      <c r="I19" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="83"/>
       <c r="K19" s="66" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B20" s="46" t="s">
         <v>68</v>
@@ -5313,14 +5280,14 @@
       <c r="F20" s="17"/>
       <c r="G20" s="55"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="93">
+      <c r="I20" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="83">
         <v>2.5</v>
       </c>
       <c r="K20" s="66" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5342,14 +5309,14 @@
       <c r="F21" s="17"/>
       <c r="G21" s="55"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="93" t="s">
-        <v>266</v>
+      <c r="I21" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="83" t="s">
+        <v>263</v>
       </c>
       <c r="K21" s="66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -5371,14 +5338,14 @@
       <c r="F22" s="17"/>
       <c r="G22" s="55"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="93" t="s">
-        <v>267</v>
+      <c r="I22" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="83" t="s">
+        <v>264</v>
       </c>
       <c r="K22" s="66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5400,19 +5367,19 @@
       <c r="F23" s="17"/>
       <c r="G23" s="55"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="93" t="s">
-        <v>280</v>
+      <c r="I23" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="83" t="s">
+        <v>277</v>
       </c>
       <c r="K23" s="66" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="58" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B24" s="46" t="s">
         <v>32</v>
@@ -5426,17 +5393,17 @@
       <c r="E24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="83"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="55"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="93" t="s">
-        <v>268</v>
+      <c r="I24" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="83" t="s">
+        <v>265</v>
       </c>
       <c r="K24" s="66" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -5444,7 +5411,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>37</v>
@@ -5458,12 +5425,12 @@
       <c r="F25" s="17"/>
       <c r="G25" s="55"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="93"/>
+      <c r="I25" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="83"/>
       <c r="K25" s="66" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5471,7 +5438,7 @@
         <v>102</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>37</v>
@@ -5485,12 +5452,12 @@
       <c r="F26" s="17"/>
       <c r="G26" s="55"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="93"/>
+      <c r="I26" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="83"/>
       <c r="K26" s="66" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -5512,17 +5479,17 @@
       <c r="F27" s="17"/>
       <c r="G27" s="55"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="93"/>
+      <c r="I27" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="83"/>
       <c r="K27" s="66" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B28" s="46" t="s">
         <v>68</v>
@@ -5539,19 +5506,19 @@
       <c r="F28" s="17"/>
       <c r="G28" s="55"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="93">
+      <c r="I28" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="83">
         <v>500</v>
       </c>
       <c r="K28" s="66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>33</v>
@@ -5568,14 +5535,14 @@
       <c r="F29" s="17"/>
       <c r="G29" s="55"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="93" t="s">
-        <v>272</v>
+      <c r="I29" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="83" t="s">
+        <v>269</v>
       </c>
       <c r="K29" s="66" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5597,12 +5564,12 @@
       <c r="F30" s="17"/>
       <c r="G30" s="55"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="93"/>
+      <c r="I30" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="83"/>
       <c r="K30" s="66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -5624,12 +5591,12 @@
       <c r="F31" s="17"/>
       <c r="G31" s="55"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="93"/>
+      <c r="I31" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="83"/>
       <c r="K31" s="66" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
@@ -5651,17 +5618,17 @@
       <c r="F32" s="17"/>
       <c r="G32" s="55"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J32" s="93"/>
+      <c r="I32" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="83"/>
       <c r="K32" s="66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="58" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B33" s="46" t="s">
         <v>32</v>
@@ -5675,17 +5642,17 @@
       <c r="E33" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="84"/>
+      <c r="F33" s="74"/>
       <c r="G33" s="55"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J33" s="95" t="s">
+      <c r="I33" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="K33" s="66" t="s">
         <v>271</v>
-      </c>
-      <c r="K33" s="66" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -5707,20 +5674,20 @@
       <c r="F34" s="17"/>
       <c r="G34" s="55"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J34" s="93"/>
+      <c r="I34" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="83"/>
       <c r="K34" s="66" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="58" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>37</v>
@@ -5734,14 +5701,14 @@
       <c r="F35" s="17"/>
       <c r="G35" s="55"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J35" s="87">
+      <c r="I35" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="77">
         <v>0</v>
       </c>
       <c r="K35" s="66" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -5763,12 +5730,12 @@
       <c r="F36" s="17"/>
       <c r="G36" s="55"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="93"/>
+      <c r="I36" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="83"/>
       <c r="K36" s="66" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -5793,9 +5760,9 @@
       <c r="I37" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="J37" s="93"/>
+      <c r="J37" s="83"/>
       <c r="K37" s="66" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -5817,12 +5784,12 @@
       <c r="F38" s="17"/>
       <c r="G38" s="55"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J38" s="93"/>
+      <c r="I38" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="83"/>
       <c r="K38" s="66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -5844,17 +5811,17 @@
       <c r="F39" s="17"/>
       <c r="G39" s="55"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="93"/>
+      <c r="I39" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="83"/>
       <c r="K39" s="66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>33</v>
@@ -5869,22 +5836,22 @@
         <v>19</v>
       </c>
       <c r="F40" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G40" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="H40" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="I40" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J40" s="93" t="s">
-        <v>279</v>
+        <v>247</v>
+      </c>
+      <c r="H40" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="I40" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="83" t="s">
+        <v>276</v>
       </c>
       <c r="K40" s="66" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -5906,12 +5873,12 @@
       <c r="F41" s="17"/>
       <c r="G41" s="55"/>
       <c r="H41" s="18"/>
-      <c r="I41" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J41" s="93"/>
+      <c r="I41" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="83"/>
       <c r="K41" s="66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -5933,15 +5900,15 @@
       <c r="F42" s="17"/>
       <c r="G42" s="55"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" s="93"/>
+      <c r="I42" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="83"/>
       <c r="K42" s="66"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="58" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B43" s="46" t="s">
         <v>14</v>
@@ -5956,27 +5923,27 @@
         <v>19</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G43" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="H43" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="I43" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J43" s="93" t="s">
-        <v>269</v>
+        <v>247</v>
+      </c>
+      <c r="H43" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="I43" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43" s="83" t="s">
+        <v>266</v>
       </c>
       <c r="K43" s="66" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="58" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B44" s="46" t="s">
         <v>14</v>
@@ -5993,12 +5960,12 @@
       <c r="F44" s="55"/>
       <c r="G44" s="55"/>
       <c r="H44" s="59"/>
-      <c r="I44" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J44" s="93"/>
+      <c r="I44" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J44" s="83"/>
       <c r="K44" s="66" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -6020,14 +5987,14 @@
       <c r="F45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="59"/>
-      <c r="I45" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J45" s="93" t="s">
-        <v>270</v>
+      <c r="I45" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="83" t="s">
+        <v>267</v>
       </c>
       <c r="K45" s="66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">

--- a/2_CodeMappingTemplates/WaterAllocation/XXwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/2_CodeMappingTemplates/WaterAllocation/XXwr_Allocation Schema Mapping to WaDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\2_CodeMappingTemplates\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306B14DE-2709-4093-8C6C-3395ECD28B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89574290-D9D8-466E-B5AF-382071204387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="280">
   <si>
     <t>Name</t>
   </si>
@@ -276,9 +276,6 @@
     <t>OrganizationContactEmail</t>
   </si>
   <si>
-    <t>OrganizationDataMappingURL</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -880,6 +877,9 @@
   </si>
   <si>
     <t>State Web Feature Service / File Input Name</t>
+  </si>
+  <si>
+    <t>WaDEDataMappingURL</t>
   </si>
 </sst>
 </file>
@@ -2248,10 +2248,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>220</v>
       </c>
       <c r="C1" s="67" t="s">
         <v>20</v>
@@ -2259,31 +2259,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="68"/>
     </row>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="68"/>
     </row>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2334,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:H1"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2361,22 +2361,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -2420,7 +2420,7 @@
         <v>37</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2450,10 +2450,10 @@
         <v>37</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K3" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2483,10 +2483,10 @@
         <v>37</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K4" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2516,10 +2516,10 @@
         <v>37</v>
       </c>
       <c r="J5" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2549,10 +2549,10 @@
         <v>37</v>
       </c>
       <c r="J6" s="79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2582,10 +2582,10 @@
         <v>37</v>
       </c>
       <c r="J7" s="79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K7" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2615,10 +2615,10 @@
         <v>37</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K8" s="66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2648,10 +2648,10 @@
         <v>37</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2681,10 +2681,10 @@
         <v>37</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2714,15 +2714,46 @@
         <v>37</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K11" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="66" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F15" s="86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2767,22 +2798,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -2820,7 +2851,7 @@
         <v>37</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2850,10 +2881,10 @@
         <v>37</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K3" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2886,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2916,10 +2947,10 @@
         <v>37</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2949,10 +2980,10 @@
         <v>37</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2982,10 +3013,10 @@
         <v>37</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K7" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3015,10 +3046,10 @@
         <v>37</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K8" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3051,7 +3082,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3081,10 +3112,10 @@
         <v>37</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3114,10 +3145,10 @@
         <v>37</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K11" s="66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3147,15 +3178,15 @@
         <v>37</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K12" s="66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F14" s="86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3169,11 +3200,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:H1"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3200,22 +3231,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -3259,7 +3290,7 @@
         <v>37</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3289,10 +3320,10 @@
         <v>37</v>
       </c>
       <c r="J3" s="80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K3" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3322,10 +3353,10 @@
         <v>37</v>
       </c>
       <c r="J4" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K4" s="66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3355,15 +3386,15 @@
         <v>37</v>
       </c>
       <c r="J5" s="80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>33</v>
@@ -3396,7 +3427,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>33</v>
@@ -3429,7 +3460,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>33</v>
@@ -3438,7 +3469,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>37</v>
@@ -3462,7 +3493,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>33</v>
@@ -3471,7 +3502,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>37</v>
@@ -3495,10 +3526,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>37</v>
@@ -3507,7 +3538,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17" t="s">
@@ -3520,49 +3551,19 @@
         <v>37</v>
       </c>
       <c r="J10" s="80" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="K10" s="66" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="K11" s="66" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F13" s="86" t="s">
-        <v>275</v>
-      </c>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="F12" s="86" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18"/>
@@ -3585,12 +3586,9 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:A24">
-    <sortCondition ref="A16:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:A23">
+    <sortCondition ref="A15:A23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3630,22 +3628,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -3689,7 +3687,7 @@
         <v>37</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3715,10 +3713,10 @@
         <v>37</v>
       </c>
       <c r="J3" s="83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K3" s="66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3738,20 +3736,20 @@
         <v>37</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H4" s="81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I4" s="76" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="83"/>
       <c r="K4" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3778,7 +3776,7 @@
       </c>
       <c r="J5" s="83"/>
       <c r="K5" s="66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3804,10 +3802,10 @@
         <v>37</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3833,10 +3831,10 @@
         <v>37</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K7" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3862,10 +3860,10 @@
         <v>37</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K8" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3891,10 +3889,10 @@
         <v>37</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3956,22 +3954,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -4015,7 +4013,7 @@
         <v>37</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4039,15 +4037,15 @@
         <v>37</v>
       </c>
       <c r="J3" s="83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K3" s="66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>66</v>
@@ -4062,20 +4060,20 @@
         <v>19</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H4" s="81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I4" s="84" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="83"/>
       <c r="K4" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4101,10 +4099,10 @@
         <v>37</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -4112,7 +4110,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>37</v>
@@ -4131,7 +4129,7 @@
       </c>
       <c r="J6" s="83"/>
       <c r="K6" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -4158,7 +4156,7 @@
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -4166,7 +4164,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>37</v>
@@ -4185,7 +4183,7 @@
       </c>
       <c r="J8" s="83"/>
       <c r="K8" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4214,7 +4212,7 @@
         <v>4326</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -4241,7 +4239,7 @@
       </c>
       <c r="J10" s="83"/>
       <c r="K10" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -4268,7 +4266,7 @@
       </c>
       <c r="J11" s="83"/>
       <c r="K11" s="66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -4276,7 +4274,7 @@
         <v>63</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>37</v>
@@ -4295,7 +4293,7 @@
       </c>
       <c r="J12" s="83"/>
       <c r="K12" s="66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -4303,7 +4301,7 @@
         <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>37</v>
@@ -4322,7 +4320,7 @@
       </c>
       <c r="J13" s="83"/>
       <c r="K13" s="66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4351,7 +4349,7 @@
         <v>40.424861522</v>
       </c>
       <c r="K14" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -4380,7 +4378,7 @@
         <v>-112.426748144</v>
       </c>
       <c r="K15" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -4407,7 +4405,7 @@
       </c>
       <c r="J16" s="83"/>
       <c r="K16" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4434,12 +4432,12 @@
       </c>
       <c r="J17" s="83"/>
       <c r="K17" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>15</v>
@@ -4460,10 +4458,10 @@
         <v>37</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K18" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4489,10 +4487,10 @@
         <v>37</v>
       </c>
       <c r="J19" s="83" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K19" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4518,10 +4516,10 @@
         <v>37</v>
       </c>
       <c r="J20" s="83" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K20" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4541,20 +4539,20 @@
         <v>37</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G21" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H21" s="81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I21" s="84" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="83"/>
       <c r="K21" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4580,10 +4578,10 @@
         <v>37</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K22" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -4609,10 +4607,10 @@
         <v>37</v>
       </c>
       <c r="J23" s="83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K23" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4639,7 +4637,7 @@
       </c>
       <c r="J24" s="83"/>
       <c r="K24" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -4673,7 +4671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
@@ -4702,22 +4700,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -4731,7 +4729,7 @@
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>32</v>
@@ -4755,7 +4753,7 @@
         <v>37</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4790,7 +4788,7 @@
         <v>37</v>
       </c>
       <c r="K3" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4825,7 +4823,7 @@
         <v>37</v>
       </c>
       <c r="K4" s="66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4860,7 +4858,7 @@
         <v>37</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
@@ -4895,12 +4893,12 @@
         <v>37</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>33</v>
@@ -4921,10 +4919,10 @@
         <v>37</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K7" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -4950,10 +4948,10 @@
         <v>37</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K8" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4979,10 +4977,10 @@
         <v>37</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -5008,10 +5006,10 @@
         <v>37</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5037,15 +5035,15 @@
         <v>37</v>
       </c>
       <c r="J11" s="83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K11" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>32</v>
@@ -5067,12 +5065,12 @@
       </c>
       <c r="J12" s="83"/>
       <c r="K12" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>67</v>
@@ -5094,12 +5092,12 @@
       </c>
       <c r="J13" s="83"/>
       <c r="K13" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="46" t="s">
         <v>67</v>
@@ -5121,12 +5119,12 @@
       </c>
       <c r="J14" s="83"/>
       <c r="K14" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="46" t="s">
         <v>33</v>
@@ -5147,15 +5145,15 @@
         <v>37</v>
       </c>
       <c r="J15" s="83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K15" s="66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>14</v>
@@ -5177,12 +5175,12 @@
       </c>
       <c r="J16" s="83"/>
       <c r="K16" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="46" t="s">
         <v>33</v>
@@ -5204,12 +5202,12 @@
       </c>
       <c r="J17" s="83"/>
       <c r="K17" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>68</v>
@@ -5231,12 +5229,12 @@
       </c>
       <c r="J18" s="83"/>
       <c r="K18" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>32</v>
@@ -5258,12 +5256,12 @@
       </c>
       <c r="J19" s="83"/>
       <c r="K19" s="66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="46" t="s">
         <v>68</v>
@@ -5287,12 +5285,12 @@
         <v>2.5</v>
       </c>
       <c r="K20" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="46" t="s">
         <v>33</v>
@@ -5313,15 +5311,15 @@
         <v>37</v>
       </c>
       <c r="J21" s="83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K21" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="46" t="s">
         <v>33</v>
@@ -5342,15 +5340,15 @@
         <v>37</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K22" s="66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="46" t="s">
         <v>67</v>
@@ -5371,15 +5369,15 @@
         <v>37</v>
       </c>
       <c r="J23" s="83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K23" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="46" t="s">
         <v>32</v>
@@ -5400,18 +5398,18 @@
         <v>37</v>
       </c>
       <c r="J24" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K24" s="66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>37</v>
@@ -5430,15 +5428,15 @@
       </c>
       <c r="J25" s="83"/>
       <c r="K25" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>37</v>
@@ -5457,12 +5455,12 @@
       </c>
       <c r="J26" s="83"/>
       <c r="K26" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="46" t="s">
         <v>33</v>
@@ -5484,12 +5482,12 @@
       </c>
       <c r="J27" s="83"/>
       <c r="K27" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="46" t="s">
         <v>68</v>
@@ -5513,12 +5511,12 @@
         <v>500</v>
       </c>
       <c r="K28" s="66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>33</v>
@@ -5539,15 +5537,15 @@
         <v>37</v>
       </c>
       <c r="J29" s="83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K29" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="46" t="s">
         <v>33</v>
@@ -5569,12 +5567,12 @@
       </c>
       <c r="J30" s="83"/>
       <c r="K30" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="46" t="s">
         <v>14</v>
@@ -5596,12 +5594,12 @@
       </c>
       <c r="J31" s="83"/>
       <c r="K31" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="46" t="s">
         <v>14</v>
@@ -5623,12 +5621,12 @@
       </c>
       <c r="J32" s="83"/>
       <c r="K32" s="66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="46" t="s">
         <v>32</v>
@@ -5649,15 +5647,15 @@
         <v>37</v>
       </c>
       <c r="J33" s="85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K33" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="46" t="s">
         <v>14</v>
@@ -5679,15 +5677,15 @@
       </c>
       <c r="J34" s="83"/>
       <c r="K34" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>37</v>
@@ -5708,12 +5706,12 @@
         <v>0</v>
       </c>
       <c r="K35" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="46" t="s">
         <v>68</v>
@@ -5735,12 +5733,12 @@
       </c>
       <c r="J36" s="83"/>
       <c r="K36" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="46" t="s">
         <v>68</v>
@@ -5762,12 +5760,12 @@
       </c>
       <c r="J37" s="83"/>
       <c r="K37" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="46" t="s">
         <v>14</v>
@@ -5789,12 +5787,12 @@
       </c>
       <c r="J38" s="83"/>
       <c r="K38" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" s="46" t="s">
         <v>33</v>
@@ -5816,12 +5814,12 @@
       </c>
       <c r="J39" s="83"/>
       <c r="K39" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>33</v>
@@ -5836,27 +5834,27 @@
         <v>19</v>
       </c>
       <c r="F40" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G40" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H40" s="81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I40" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J40" s="83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K40" s="66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="46" t="s">
         <v>32</v>
@@ -5878,12 +5876,12 @@
       </c>
       <c r="J41" s="83"/>
       <c r="K41" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="46" t="s">
         <v>15</v>
@@ -5908,7 +5906,7 @@
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B43" s="46" t="s">
         <v>14</v>
@@ -5923,27 +5921,27 @@
         <v>19</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G43" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H43" s="81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I43" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J43" s="83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K43" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B44" s="46" t="s">
         <v>14</v>
@@ -5965,12 +5963,12 @@
       </c>
       <c r="J44" s="83"/>
       <c r="K44" s="66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="46" t="s">
         <v>33</v>
@@ -5991,10 +5989,10 @@
         <v>37</v>
       </c>
       <c r="J45" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K45" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">

--- a/2_CodeMappingTemplates/WaterAllocation/XXwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/2_CodeMappingTemplates/WaterAllocation/XXwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\2_CodeMappingTemplates\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89574290-D9D8-466E-B5AF-382071204387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCFC310-2DDD-463D-872A-075F9223FDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -879,7 +879,7 @@
     <t>State Web Feature Service / File Input Name</t>
   </si>
   <si>
-    <t>WaDEDataMappingURL</t>
+    <t>WaDEDataMappingUrl</t>
   </si>
 </sst>
 </file>
@@ -2332,9 +2332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3202,7 +3202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>

--- a/2_CodeMappingTemplates/WaterAllocation/XXwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/2_CodeMappingTemplates/WaterAllocation/XXwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\2_CodeMappingTemplates\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCFC310-2DDD-463D-872A-075F9223FDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9203973F-3F30-4FAE-ABBC-A962D8EA7E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="282">
   <si>
     <t>Name</t>
   </si>
@@ -864,9 +864,6 @@
     <t>POD Withdrawl data.</t>
   </si>
   <si>
-    <t>*Create this file by hand</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bureau of Land Management (USBLM)</t>
   </si>
   <si>
@@ -880,6 +877,15 @@
   </si>
   <si>
     <t>WaDEDataMappingUrl</t>
+  </si>
+  <si>
+    <t>*Create method.csv file by hand</t>
+  </si>
+  <si>
+    <t>*Create variable.csv file by hand</t>
+  </si>
+  <si>
+    <t>*Create organization.csv file by hand</t>
   </si>
 </sst>
 </file>
@@ -2332,9 +2338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2370,10 +2376,10 @@
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>225</v>
@@ -2722,7 +2728,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>15</v>
@@ -2753,7 +2759,7 @@
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F15" s="86" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2771,7 +2777,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:H1"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2807,10 +2813,10 @@
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>225</v>
@@ -3186,7 +3192,7 @@
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F14" s="86" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3202,9 +3208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3240,10 +3246,10 @@
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>225</v>
@@ -3559,7 +3565,7 @@
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F12" s="86" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -3637,10 +3643,10 @@
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>225</v>
@@ -3963,10 +3969,10 @@
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>225</v>
@@ -4709,10 +4715,10 @@
         <v>36</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>225</v>
@@ -5369,7 +5375,7 @@
         <v>37</v>
       </c>
       <c r="J23" s="83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K23" s="66" t="s">
         <v>157</v>
@@ -5846,7 +5852,7 @@
         <v>37</v>
       </c>
       <c r="J40" s="83" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K40" s="66" t="s">
         <v>159</v>
